--- a/parameter_setting/load_parameters_zhang_rtn.xlsx
+++ b/parameter_setting/load_parameters_zhang_rtn.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00874A-1974-468F-88E0-D36EC7408B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E7A06E-E0A8-4BAA-AD3A-292AEDF1BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3405" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nominal_power" sheetId="1" r:id="rId1"/>
     <sheet name="processing_time" sheetId="2" r:id="rId2"/>
+    <sheet name="melting_power_ratio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +66,18 @@
   </si>
   <si>
     <t>max waiting time/min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,12 +409,12 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -446,16 +459,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED518CA2-DF88-4A4D-9A5F-443B63700D9B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -489,7 +502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -506,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -521,6 +534,48 @@
       </c>
       <c r="E4">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F48BED-83F4-449D-9085-35910D2647CD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.75</v>
+      </c>
+      <c r="C2">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
